--- a/content/drafts/entitats/Codis_Territori_Nivell_Poblacional.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Nivell_Poblacional.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\05.Noves_entitats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\06.OIAD_Paquet_03\05.Nivells poblacionals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CEF287-DD9A-416A-8176-425699BCF1B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5FCEE-7D7D-4018-8CEF-FED2DA1FAEC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipus_Ens_Locals" sheetId="1" r:id="rId1"/>
+    <sheet name="Nivells_Poblacionals" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Codi</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Codis_Territori_Nivell_Poblacional</t>
-  </si>
-  <si>
     <t>Nucli</t>
   </si>
   <si>
@@ -82,6 +79,30 @@
   </si>
   <si>
     <t>Nom de la taula:</t>
+  </si>
+  <si>
+    <t>Es desconeix el nivell poblacional.</t>
+  </si>
+  <si>
+    <t>El nivell poblacional és un valor que no apareix en aquesta classificació o es correspon a més d'un valor d'aquesta llista.</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Nivells_Poblacionals</t>
   </si>
 </sst>
 </file>
@@ -175,15 +196,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -196,37 +208,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -240,6 +236,12 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -263,7 +265,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -292,8 +294,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -308,7 +316,38 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,11 +363,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
-    <tableColumn id="3" xr3:uid="{FDE2CC21-91C6-4D1A-BEED-8F35DD43F1C2}" name="Descripció" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="3" xr3:uid="{FDE2CC21-91C6-4D1A-BEED-8F35DD43F1C2}" name="Descripció" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,106 +643,113 @@
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.26953125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>98</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>99</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A4:A10" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -720,15 +766,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -860,6 +897,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
@@ -877,14 +923,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -900,4 +938,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>